--- a/static/demo.xlsx
+++ b/static/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>商品名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -46,6 +46,25 @@
   </si>
   <si>
     <t>克</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放位置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -986,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,7 +1018,7 @@
     <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1037,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1035,8 +1060,17 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1052,8 +1086,17 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1069,8 +1112,17 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="F4">
+        <v>3123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1085,6 +1137,15 @@
       </c>
       <c r="E5" t="s">
         <v>6</v>
+      </c>
+      <c r="F5">
+        <v>3123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/static/demo.xlsx
+++ b/static/demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="37755" windowHeight="19305"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="afaa8342776ad99ff0d49bca224de9b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>商品名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -64,15 +64,35 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>规格</t>
+    <t>包装含量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可不填</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是厂家</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,7 +739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,7 +813,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -828,7 +847,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1004,21 +1022,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="4" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,22 +1048,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1061,16 +1086,22 @@
         <v>7</v>
       </c>
       <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>123</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1000</v>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1087,16 +1118,22 @@
         <v>6</v>
       </c>
       <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>2000</v>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1113,16 +1150,22 @@
         <v>6</v>
       </c>
       <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
         <v>3123</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>2000</v>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1139,13 +1182,19 @@
         <v>6</v>
       </c>
       <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
         <v>3123</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>2000</v>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/demo.xlsx
+++ b/static/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>商品名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>我是厂家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,33,44</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1034,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1085,8 +1093,8 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>11</v>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2">
         <v>123</v>
@@ -1149,8 +1157,8 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>33</v>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
       <c r="G4">
         <v>3123</v>

--- a/static/demo.xlsx
+++ b/static/demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="37755" windowHeight="19305"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="afaa8342776ad99ff0d49bca224de9b" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>商品名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -64,15 +64,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>规格</t>
+    <t>包装含量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可不填</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是厂家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,33,44</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,7 +747,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,7 +821,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -828,7 +855,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1004,21 +1030,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="67.125" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="4" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,22 +1056,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1060,17 +1093,23 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
         <v>123</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1000</v>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1087,16 +1126,22 @@
         <v>6</v>
       </c>
       <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="H3">
-        <v>2000</v>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1112,17 +1157,23 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>3123</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>2000</v>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1139,13 +1190,19 @@
         <v>6</v>
       </c>
       <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
         <v>3123</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>2000</v>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/demo.xlsx
+++ b/static/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>商品名字</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -93,6 +93,38 @@
   </si>
   <si>
     <t>33,33,44</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级分类Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品品牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>e50d848ce8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb8f42c7e9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试品牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试规格</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +292,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF515A6E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -687,8 +726,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,177 +1073,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="4" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="1" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="8" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>123</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>22</v>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>22</v>
       </c>
       <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>3123</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14" ht="16.5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>44</v>
       </c>
       <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
         <v>3123</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>15</v>
       </c>
     </row>
